--- a/pred_ohlcv/54_21/2020-01-13 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 QTUM ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>5381.32113077</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>9903.374330770001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>9159.667430770001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>9159.667430770001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8708.976130770001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8708.976130770001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8776.976130770001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9058.850130770001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>8971.850130770001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>10238.86363077</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>10342.76363077</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>12316.1029886</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>11237.9640886</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>11460.4790886</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>11560.4790886</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2592.829053910001</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2534.803353910001</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>3085.130353910001</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3555.786477630001</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3375.486477630001</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3375.486477630001</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4647.498377630001</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4647.498377630001</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>5804.537277630001</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>5172.201677630001</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>5172.201677630001</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>5172.201677630001</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>7172.201677630001</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3968.743477629998</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3868.743477629998</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>7454.799577629998</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>17326.10227763</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>18101.85557763</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>18924.90537763</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>17621.23520263</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>16544.89290263</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>19505.37100263</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>19207.47100263</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>16818.87810263</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>16426.06500263</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>31362.28950263</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>72235.41620263</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>75524.69900262999</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>75524.69900262999</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>75524.69900262999</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>80729.38700262998</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>80487.88400262999</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>77935.75710262998</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>77846.43780262998</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>77846.43780262998</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>78374.01410262998</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>77576.01410262998</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>76738.02140262998</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>78648.15270262997</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>78648.15270262997</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>79738.72110262998</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>79447.28900262997</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>81980.74742086997</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>81172.62713359998</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>83293.99922808998</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>83255.59162808997</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>83977.54372808996</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>83977.54372808996</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>84239.95590498997</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>87754.43222808997</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>87754.43222808997</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>84284.87808421996</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>83967.34288421996</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>83588.20858421996</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>84346.97238421996</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>83976.50278421996</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>83745.30298421996</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>83745.30298421996</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>84195.11068421997</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>79013.77318421997</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>79027.36098421997</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>78946.64138421997</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>78946.64138421997</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>78933.55278421997</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>78935.65268529997</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>78935.65268529997</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>78905.65268529997</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>78905.65268529997</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>78875.65268529997</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>78875.65268529997</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>78875.65268529997</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>78771.29508529996</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>78771.29508529996</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>77904.66568529996</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>78105.45958529996</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>82343.36825619994</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>84528.47845619994</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>86358.55824061994</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>87082.12424061995</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>85095.37433811995</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>85099.46803811994</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>84306.99683811994</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>84306.99683811994</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>84306.99683811994</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2748.16506923</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2834.34296923</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-2898.54096923</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-337.3048692299999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1702.68823077</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2362.77183077</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -808,7 +808,7 @@
         <v>5381.32113077</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>9903.374330770001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>9159.667430770001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>9159.667430770001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8708.976130770001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8708.976130770001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>8776.976130770001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9058.850130770001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>8971.850130770001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>10238.86363077</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>10342.76363077</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>12316.1029886</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>11237.9640886</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>11255.9640886</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>11255.9640886</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>11460.4790886</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>11563.0120886</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1771.667453910001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2604.112953910001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>2604.112953910001</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2592.829053910001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2592.829053910001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2534.803353910001</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>3085.130353910001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3267.986477630001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3555.786477630001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3375.486477630001</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3375.486477630001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4647.498377630001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4647.498377630001</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>5804.537277630001</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>5172.201677630001</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>5172.201677630001</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>5172.201677630001</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>7172.201677630001</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>7172.201677630001</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>7253.13637763</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7253.13637763</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>7314.83637763</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>6734.23637763</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>6464.348777629999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>5873.087077629999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>5873.087077629999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>5724.205077629999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5725.205077629999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>4855.548177629999</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>4864.787377629999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>4174.675177629999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>4149.459177629999</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>3968.743477629998</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>3868.743477629998</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>7454.799577629998</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>17326.10227763</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>17854.78237763</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>18007.52237763</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>18332.13987763</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>17621.23520263</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>16544.89290263</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>19505.37100263</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>19207.47100263</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>16818.87810263</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>16426.06500263</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>31362.28950263</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>69462.61200263001</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>72893.28400263001</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>72235.41620263</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>71359.52580263</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>72479.56680263</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>72479.56680263</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>72479.56680263</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>75524.69900262999</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>75524.69900262999</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>75524.69900262999</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>80729.38700262998</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>80487.88400262999</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>77935.75710262998</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>77846.43780262998</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>77846.43780262998</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>78374.01410262998</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>77576.01410262998</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>76738.02140262998</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>78648.15270262997</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>78648.15270262997</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>79738.72110262998</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>79447.28900262997</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>81980.74742086997</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>81172.62713359998</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>83293.99922808998</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>83255.59162808997</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>83977.54372808996</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>83977.54372808996</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>84239.95590498997</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>87754.43222808997</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>87754.43222808997</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>84284.87808421996</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>83967.34288421996</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>83588.20858421996</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>84346.97238421996</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>83976.50278421996</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>83745.30298421996</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>83745.30298421996</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>84195.11068421997</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>79013.77318421997</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>79027.36098421997</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>78946.64138421997</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>82343.36825619994</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>84528.47845619994</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>86358.55824061994</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
